--- a/02_Proyecto/07.InformeGeneral/Cuadernos/01_CuadernoRegistroTiempos.xlsx
+++ b/02_Proyecto/07.InformeGeneral/Cuadernos/01_CuadernoRegistroTiempos.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Kevin\2025_Septimo\Aseguramiento calidad - 2563\GIT\2563_G5_ACSW\02_Proyecto\07.InformeGeneral\Cuadernos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A7545-653C-4545-83AE-5C756AE03575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9A7EB-836F-41E6-8973-B1EC2E68C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRT" sheetId="1" r:id="rId1"/>
     <sheet name="Diccionario de Actividades" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -319,6 +332,15 @@
       </rPr>
       <t>2563</t>
     </r>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Segundo</t>
   </si>
 </sst>
 </file>
@@ -719,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -778,6 +800,49 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,49 +867,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,9 +899,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -904,7 +939,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1010,7 +1045,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1152,7 +1187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1160,65 +1195,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J43"/>
+  <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1796875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="3.77734375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="19"/>
       <c r="H4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:10" s="2" customFormat="1" ht="11.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:12" s="2" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>45628</v>
       </c>
@@ -1258,8 +1293,9 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="14">
-        <v>2</v>
+      <c r="F7" s="48">
+        <f>(D7-C7)*24</f>
+        <v>1.9999999999999996</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>31</v>
@@ -1273,8 +1309,9 @@
       <c r="J7" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="2:12" ht="54" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>45628</v>
       </c>
@@ -1285,8 +1322,9 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="14">
-        <v>2</v>
+      <c r="F8" s="48">
+        <f t="shared" ref="F8:F27" si="0">(D8-C8)*24</f>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>33</v>
@@ -1301,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>45629</v>
       </c>
@@ -1309,11 +1347,12 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="13">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="14">
-        <v>3</v>
+      <c r="F9" s="48">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>35</v>
@@ -1328,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>45629</v>
       </c>
@@ -1339,8 +1378,9 @@
         <v>0.625</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="14">
-        <v>2</v>
+      <c r="F10" s="48">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>37</v>
@@ -1355,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>45630</v>
       </c>
@@ -1363,11 +1403,12 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="13">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="14">
-        <v>2</v>
+      <c r="F11" s="48">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>39</v>
@@ -1382,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>45630</v>
       </c>
@@ -1393,8 +1434,9 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E12" s="14"/>
-      <c r="F12" s="14">
-        <v>2</v>
+      <c r="F12" s="48">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>41</v>
@@ -1409,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>45631</v>
       </c>
@@ -1417,11 +1459,12 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="13">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="14">
-        <v>3</v>
+      <c r="F13" s="48">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>43</v>
@@ -1436,7 +1479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>45631</v>
       </c>
@@ -1447,8 +1490,9 @@
         <v>0.625</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="14">
-        <v>2</v>
+      <c r="F14" s="48">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>45</v>
@@ -1463,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>45632</v>
       </c>
@@ -1474,8 +1518,9 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="14">
-        <v>2</v>
+      <c r="F15" s="48">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>47</v>
@@ -1490,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>45632</v>
       </c>
@@ -1498,11 +1543,12 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D16" s="13">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="14"/>
-      <c r="F16" s="14">
-        <v>2</v>
+      <c r="F16" s="48">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>49</v>
@@ -1517,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>45633</v>
       </c>
@@ -1525,11 +1571,12 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="13">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="14">
-        <v>3</v>
+      <c r="F17" s="48">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>51</v>
@@ -1544,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>45633</v>
       </c>
@@ -1555,8 +1602,9 @@
         <v>0.625</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="14">
-        <v>2</v>
+      <c r="F18" s="48">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>53</v>
@@ -1571,7 +1619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>45635</v>
       </c>
@@ -1579,11 +1627,12 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="13">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="14">
-        <v>2</v>
+      <c r="F19" s="48">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>55</v>
@@ -1598,7 +1647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>45635</v>
       </c>
@@ -1609,8 +1658,9 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="14">
-        <v>2</v>
+      <c r="F20" s="48">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>57</v>
@@ -1625,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>45636</v>
       </c>
@@ -1633,11 +1683,12 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="13">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="14">
-        <v>3</v>
+      <c r="F21" s="48">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>59</v>
@@ -1652,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>45636</v>
       </c>
@@ -1663,8 +1714,9 @@
         <v>0.625</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="14">
-        <v>2</v>
+      <c r="F22" s="48">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>61</v>
@@ -1679,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="54" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>45637</v>
       </c>
@@ -1687,11 +1739,12 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="13">
-        <v>0.45833333333333331</v>
+        <v>0.41805555555555557</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="14">
-        <v>2</v>
+      <c r="F23" s="49">
+        <f t="shared" si="0"/>
+        <v>1.0333333333333337</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>63</v>
@@ -1706,7 +1759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="54" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>45637</v>
       </c>
@@ -1714,11 +1767,12 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D24" s="13">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="14">
-        <v>2</v>
+      <c r="F24" s="48">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>65</v>
@@ -1733,7 +1787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>45638</v>
       </c>
@@ -1741,11 +1795,12 @@
         <v>0.375</v>
       </c>
       <c r="D25" s="13">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="14">
-        <v>3</v>
+      <c r="F25" s="48">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>67</v>
@@ -1760,7 +1815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="42" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <v>45638</v>
       </c>
@@ -1771,8 +1826,9 @@
         <v>0.625</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="14">
-        <v>2</v>
+      <c r="F26" s="48">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>69</v>
@@ -1787,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="21.6" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>45639</v>
       </c>
@@ -1798,8 +1854,9 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="14">
-        <v>2</v>
+      <c r="F27" s="48">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>71</v>
@@ -1815,12 +1872,19 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
+      <c r="B28" s="50" t="s">
+        <v>92</v>
+      </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="51">
+        <f>SUM(F7:F27)</f>
+        <v>35.033333333333339</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="2"/>
       <c r="J28" s="11"/>
@@ -1830,8 +1894,13 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="2">
+        <f>F28*60</f>
+        <v>2102.0000000000005</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="2"/>
       <c r="J29" s="11"/>
@@ -2008,14 +2077,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="131.1796875" customWidth="1"/>
+    <col min="3" max="3" width="131.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2024,21 +2093,21 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -2048,7 +2117,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -2058,7 +2127,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -2180,47 +2249,47 @@
     </row>
     <row r="18" spans="1:7" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="25" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="27" t="s">
         <v>87</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:7" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="3"/>
     </row>
   </sheetData>
